--- a/biology/Botanique/Multiplication_des_arbres_fruitiers/Multiplication_des_arbres_fruitiers.xlsx
+++ b/biology/Botanique/Multiplication_des_arbres_fruitiers/Multiplication_des_arbres_fruitiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La multiplication des arbres fruitiers consiste à produire des arbres fruitiers principalement par greffe sur des arbres n'ayant, par eux-mêmes, qu'une fructification de faible intérêt pour l'homme.
 </t>
@@ -511,7 +523,9 @@
           <t>Le pommier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les porte-greffes du pommier sont le franc, le doucin et le pommier paradis.
 le franc qui convient aux formes hautes est souvent greffé en pied avec un intermédiaire, celui-ci étant greffé en tête.
@@ -544,7 +558,9 @@
           <t>Le poirier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les porte-greffes du poirier commun sont :
 le cognassier
@@ -577,25 +593,130 @@
           <t>Les fruits à noyau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les fruits à noyau supportent moins bien la greffe en fente que les fruits à pépins. On privilégiera autant que possible la greffe en écusson à la fin de l'été.
-Le cerisier
-Se greffe sur :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits à noyau supportent moins bien la greffe en fente que les fruits à pépins. On privilégiera autant que possible la greffe en écusson à la fin de l'été.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les fruits à noyau</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le cerisier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Se greffe sur :
 cerisier franc
 cerisier sainte-lucie (Prunus mahaleb) pour les formes basses
-merisier (Prunus avium) pour les hautes tiges (avec une préférence pour le merisier blanc, plus productif)
-L'abricotier
-Se greffe sur :
+merisier (Prunus avium) pour les hautes tiges (avec une préférence pour le merisier blanc, plus productif)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les fruits à noyau</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'abricotier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Se greffe sur :
 prunier mais donne des abricotiers à vie courte
 prunier sainte-catherine
 prunier saint-julien
 prunier myrobalan (Prunus myrobalan)
 abricotier franc
 pêcher franc
-amandier franc qui sert aussi de porte-greffe à l'amandier
-Le pêcher
-Se greffe sur :
+amandier franc qui sert aussi de porte-greffe à l'amandier</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Multiplication_des_arbres_fruitiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les fruits à noyau</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le pêcher</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Se greffe sur :
 pêcher franc
 amandier franc
 prunier
